--- a/Zaoch/19/лаб1,3,4.xlsx
+++ b/Zaoch/19/лаб1,3,4.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\nikit\Desktop\PAS\Zaoch\19\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E501D15E-D892-42E2-A6F7-F908D7A81222}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BD5BA7B0-B5D5-45AB-926B-7BF3FFC1E46A}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8964" xr2:uid="{41422B86-A465-485E-A3F6-9BAAF425347B}"/>
   </bookViews>
@@ -934,102 +934,6 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="0" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="1" fontId="8" fillId="4" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1052,6 +956,102 @@
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1370,8 +1370,8 @@
   <sheetPr codeName="Лист1"/>
   <dimension ref="A1:Y108"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="H16" zoomScale="53" zoomScaleNormal="25" workbookViewId="0">
-      <selection activeCell="V43" sqref="V43"/>
+    <sheetView tabSelected="1" topLeftCell="L1" zoomScale="66" zoomScaleNormal="25" workbookViewId="0">
+      <selection activeCell="W15" sqref="W15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1583,14 +1583,14 @@
       </c>
     </row>
     <row r="22" spans="1:25" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A22" s="163" t="s">
+      <c r="A22" s="141" t="s">
         <v>90</v>
       </c>
-      <c r="B22" s="163"/>
-      <c r="C22" s="163"/>
-      <c r="D22" s="163"/>
-      <c r="E22" s="163"/>
-      <c r="F22" s="163"/>
+      <c r="B22" s="141"/>
+      <c r="C22" s="141"/>
+      <c r="D22" s="141"/>
+      <c r="E22" s="141"/>
+      <c r="F22" s="141"/>
       <c r="I22" s="64" t="s">
         <v>8</v>
       </c>
@@ -2020,14 +2020,14 @@
       <c r="U29" s="28" t="s">
         <v>19</v>
       </c>
-      <c r="V29" s="164">
-        <f>C4</f>
-        <v>27581</v>
+      <c r="V29" s="132">
+        <f>T60</f>
+        <v>5014.727272727273</v>
       </c>
       <c r="W29" s="34"/>
       <c r="Y29" s="45">
         <f>V29</f>
-        <v>27581</v>
+        <v>5014.727272727273</v>
       </c>
     </row>
     <row r="30" spans="1:25" ht="18" thickBot="1" x14ac:dyDescent="0.4">
@@ -2061,14 +2061,14 @@
       <c r="U30" s="28" t="s">
         <v>20</v>
       </c>
-      <c r="V30" s="165">
-        <f>C11</f>
-        <v>100320</v>
+      <c r="V30" s="133">
+        <f>T62</f>
+        <v>33440</v>
       </c>
       <c r="W30" s="34"/>
       <c r="Y30" s="45">
         <f>V30</f>
-        <v>100320</v>
+        <v>33440</v>
       </c>
     </row>
     <row r="31" spans="1:25" ht="18" thickBot="1" x14ac:dyDescent="0.4">
@@ -2102,14 +2102,14 @@
       <c r="U31" s="28" t="s">
         <v>21</v>
       </c>
-      <c r="V31" s="165">
-        <f>C18</f>
-        <v>29520</v>
+      <c r="V31" s="133">
+        <f>T61</f>
+        <v>10933.333333333332</v>
       </c>
       <c r="W31" s="34"/>
       <c r="Y31" s="45">
         <f>V31</f>
-        <v>29520</v>
+        <v>10933.333333333332</v>
       </c>
     </row>
     <row r="32" spans="1:25" x14ac:dyDescent="0.3">
@@ -2145,38 +2145,38 @@
       </c>
       <c r="V32" s="44">
         <f>SUM(V24:V31)</f>
-        <v>159189</v>
+        <v>51156.060606060608</v>
       </c>
     </row>
     <row r="33" spans="1:25" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="W33" s="8">
         <f>SUM(O31:T31,V32)</f>
-        <v>263939</v>
+        <v>155906.06060606061</v>
       </c>
       <c r="Y33" s="8">
         <f>SUM(Y24:Y31)</f>
-        <v>263939</v>
+        <v>155906.06060606064</v>
       </c>
     </row>
     <row r="34" spans="1:25" x14ac:dyDescent="0.3">
-      <c r="A34" s="141" t="s">
+      <c r="A34" s="150" t="s">
         <v>65</v>
       </c>
-      <c r="B34" s="142"/>
-      <c r="C34" s="142"/>
-      <c r="D34" s="142"/>
-      <c r="E34" s="140"/>
-      <c r="F34" s="140"/>
-      <c r="G34" s="140"/>
-      <c r="H34" s="140"/>
-      <c r="I34" s="134"/>
-      <c r="J34" s="134"/>
-      <c r="K34" s="134"/>
-      <c r="L34" s="152"/>
-      <c r="N34" s="133" t="s">
+      <c r="B34" s="151"/>
+      <c r="C34" s="151"/>
+      <c r="D34" s="151"/>
+      <c r="E34" s="172"/>
+      <c r="F34" s="172"/>
+      <c r="G34" s="172"/>
+      <c r="H34" s="172"/>
+      <c r="I34" s="169"/>
+      <c r="J34" s="169"/>
+      <c r="K34" s="169"/>
+      <c r="L34" s="170"/>
+      <c r="N34" s="171" t="s">
         <v>80</v>
       </c>
-      <c r="O34" s="134"/>
+      <c r="O34" s="169"/>
       <c r="P34" s="20"/>
       <c r="Q34" s="20"/>
       <c r="R34" s="20"/>
@@ -2196,7 +2196,7 @@
       <c r="C35" s="18" t="s">
         <v>54</v>
       </c>
-      <c r="D35" s="132"/>
+      <c r="D35" s="161"/>
       <c r="E35" s="93" t="s">
         <v>55</v>
       </c>
@@ -2205,10 +2205,10 @@
       <c r="H35" s="3" t="s">
         <v>56</v>
       </c>
-      <c r="I35" s="139"/>
-      <c r="J35" s="139"/>
-      <c r="K35" s="139"/>
-      <c r="L35" s="146"/>
+      <c r="I35" s="162"/>
+      <c r="J35" s="162"/>
+      <c r="K35" s="162"/>
+      <c r="L35" s="163"/>
       <c r="N35" s="32"/>
       <c r="O35" s="3"/>
       <c r="P35" s="3"/>
@@ -2239,7 +2239,7 @@
         <f>B$28/B36</f>
         <v>574</v>
       </c>
-      <c r="D36" s="132"/>
+      <c r="D36" s="161"/>
       <c r="E36" s="81">
         <v>198</v>
       </c>
@@ -2260,8 +2260,8 @@
         <f>F36</f>
         <v>п4</v>
       </c>
-      <c r="K36" s="139"/>
-      <c r="L36" s="146"/>
+      <c r="K36" s="162"/>
+      <c r="L36" s="163"/>
       <c r="M36" s="18"/>
       <c r="N36" s="43" t="s">
         <v>60</v>
@@ -2304,7 +2304,7 @@
         <f>C$28/B37</f>
         <v>330</v>
       </c>
-      <c r="D37" s="132"/>
+      <c r="D37" s="161"/>
       <c r="E37" s="81">
         <v>297.14285714285711</v>
       </c>
@@ -2325,8 +2325,8 @@
         <f t="shared" ref="J37:J41" si="9">F37</f>
         <v>п5</v>
       </c>
-      <c r="K37" s="139"/>
-      <c r="L37" s="146"/>
+      <c r="K37" s="162"/>
+      <c r="L37" s="163"/>
       <c r="M37" s="18"/>
       <c r="N37" s="43">
         <v>2</v>
@@ -2371,7 +2371,7 @@
         <f>D$28/B38</f>
         <v>331.11111111111114</v>
       </c>
-      <c r="D38" s="132"/>
+      <c r="D38" s="161"/>
       <c r="E38" s="81">
         <v>330</v>
       </c>
@@ -2392,8 +2392,8 @@
         <f t="shared" si="9"/>
         <v>п2</v>
       </c>
-      <c r="K38" s="139"/>
-      <c r="L38" s="146"/>
+      <c r="K38" s="162"/>
+      <c r="L38" s="163"/>
       <c r="M38" s="18"/>
       <c r="N38" s="118">
         <v>9</v>
@@ -2438,7 +2438,7 @@
         <f>E$28/B39</f>
         <v>198</v>
       </c>
-      <c r="D39" s="132"/>
+      <c r="D39" s="161"/>
       <c r="E39" s="81">
         <v>331.11111111111114</v>
       </c>
@@ -2459,17 +2459,17 @@
         <f t="shared" si="9"/>
         <v>п3</v>
       </c>
-      <c r="K39" s="139"/>
-      <c r="L39" s="146"/>
+      <c r="K39" s="162"/>
+      <c r="L39" s="163"/>
       <c r="M39" s="18"/>
       <c r="N39" s="43">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="O39" s="113">
-        <v>2</v>
+        <v>1.25</v>
       </c>
       <c r="P39" s="5">
-        <v>30</v>
+        <v>18</v>
       </c>
       <c r="Q39" s="5" t="s">
         <v>83</v>
@@ -2494,7 +2494,7 @@
         <f>F$28/B40</f>
         <v>297.14285714285711</v>
       </c>
-      <c r="D40" s="132"/>
+      <c r="D40" s="161"/>
       <c r="E40" s="81">
         <v>453.75</v>
       </c>
@@ -2515,8 +2515,8 @@
         <f t="shared" si="9"/>
         <v>п6</v>
       </c>
-      <c r="K40" s="139"/>
-      <c r="L40" s="146"/>
+      <c r="K40" s="162"/>
+      <c r="L40" s="163"/>
       <c r="M40" s="18"/>
       <c r="N40" s="118">
         <v>18</v>
@@ -2550,7 +2550,7 @@
         <f>G$28/B41</f>
         <v>453.75</v>
       </c>
-      <c r="D41" s="132"/>
+      <c r="D41" s="161"/>
       <c r="E41" s="81">
         <v>574</v>
       </c>
@@ -2571,8 +2571,8 @@
         <f t="shared" si="9"/>
         <v>п1</v>
       </c>
-      <c r="K41" s="139"/>
-      <c r="L41" s="146"/>
+      <c r="K41" s="162"/>
+      <c r="L41" s="163"/>
       <c r="M41" s="18"/>
       <c r="N41" s="118">
         <v>20</v>
@@ -2595,21 +2595,21 @@
       <c r="X41" s="18"/>
     </row>
     <row r="42" spans="1:25" x14ac:dyDescent="0.3">
-      <c r="A42" s="143"/>
-      <c r="B42" s="132"/>
-      <c r="C42" s="132"/>
-      <c r="D42" s="132"/>
-      <c r="E42" s="149"/>
-      <c r="F42" s="149"/>
-      <c r="G42" s="149"/>
-      <c r="H42" s="149"/>
-      <c r="I42" s="149"/>
-      <c r="J42" s="149"/>
-      <c r="K42" s="149"/>
-      <c r="L42" s="150"/>
+      <c r="A42" s="160"/>
+      <c r="B42" s="161"/>
+      <c r="C42" s="161"/>
+      <c r="D42" s="161"/>
+      <c r="E42" s="166"/>
+      <c r="F42" s="166"/>
+      <c r="G42" s="166"/>
+      <c r="H42" s="166"/>
+      <c r="I42" s="166"/>
+      <c r="J42" s="166"/>
+      <c r="K42" s="166"/>
+      <c r="L42" s="167"/>
       <c r="M42" s="18"/>
       <c r="N42" s="43">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="O42" s="113">
         <v>1</v>
@@ -2638,18 +2638,18 @@
       <c r="C43" s="3" t="s">
         <v>62</v>
       </c>
-      <c r="D43" s="132"/>
-      <c r="E43" s="149"/>
-      <c r="F43" s="149"/>
-      <c r="G43" s="149"/>
-      <c r="H43" s="149"/>
-      <c r="I43" s="149"/>
-      <c r="J43" s="149"/>
-      <c r="K43" s="149"/>
-      <c r="L43" s="150"/>
+      <c r="D43" s="161"/>
+      <c r="E43" s="166"/>
+      <c r="F43" s="166"/>
+      <c r="G43" s="166"/>
+      <c r="H43" s="166"/>
+      <c r="I43" s="166"/>
+      <c r="J43" s="166"/>
+      <c r="K43" s="166"/>
+      <c r="L43" s="167"/>
       <c r="M43" s="18"/>
       <c r="N43" s="43">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="O43" s="113">
         <v>1</v>
@@ -2678,7 +2678,7 @@
       <c r="C44" s="100">
         <v>35</v>
       </c>
-      <c r="D44" s="132"/>
+      <c r="D44" s="161"/>
       <c r="E44" s="74" t="s">
         <v>63</v>
       </c>
@@ -2700,7 +2700,7 @@
       <c r="K44" s="76" t="s">
         <v>7</v>
       </c>
-      <c r="L44" s="151"/>
+      <c r="L44" s="168"/>
       <c r="M44" s="18"/>
       <c r="N44" s="43"/>
       <c r="O44" s="18"/>
@@ -2724,7 +2724,7 @@
       <c r="C45" s="100">
         <v>65</v>
       </c>
-      <c r="D45" s="132"/>
+      <c r="D45" s="161"/>
       <c r="E45" s="97">
         <f>A44</f>
         <v>27</v>
@@ -2741,7 +2741,7 @@
         <f>$C$38/$B44</f>
         <v>264.88888888888891</v>
       </c>
-      <c r="I45" s="167">
+      <c r="I45" s="135">
         <f>$C$39/$B44</f>
         <v>158.4</v>
       </c>
@@ -2753,7 +2753,7 @@
         <f>$C$41/$B44</f>
         <v>363</v>
       </c>
-      <c r="L45" s="151"/>
+      <c r="L45" s="168"/>
       <c r="M45" s="18"/>
       <c r="N45" s="128" t="s">
         <v>84</v>
@@ -2793,12 +2793,12 @@
       <c r="C46" s="100">
         <v>70</v>
       </c>
-      <c r="D46" s="132"/>
+      <c r="D46" s="161"/>
       <c r="E46" s="78">
         <f t="shared" ref="E46:E47" si="11">A45</f>
         <v>29</v>
       </c>
-      <c r="F46" s="166">
+      <c r="F46" s="134">
         <f>$C$36/$B45</f>
         <v>208.72727272727272</v>
       </c>
@@ -2822,7 +2822,7 @@
         <f t="shared" ref="K46:K47" si="16">$C$41/$B45</f>
         <v>165</v>
       </c>
-      <c r="L46" s="151"/>
+      <c r="L46" s="168"/>
       <c r="M46" s="18"/>
       <c r="N46" s="43">
         <v>2</v>
@@ -2859,10 +2859,10 @@
       <c r="X46" s="18"/>
     </row>
     <row r="47" spans="1:25" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A47" s="143"/>
-      <c r="B47" s="132"/>
-      <c r="C47" s="132"/>
-      <c r="D47" s="132"/>
+      <c r="A47" s="160"/>
+      <c r="B47" s="161"/>
+      <c r="C47" s="161"/>
+      <c r="D47" s="161"/>
       <c r="E47" s="97">
         <f t="shared" si="11"/>
         <v>46</v>
@@ -2891,13 +2891,13 @@
         <f t="shared" si="16"/>
         <v>201.66666666666666</v>
       </c>
-      <c r="L47" s="151"/>
+      <c r="L47" s="168"/>
       <c r="M47" s="18"/>
       <c r="N47" s="118">
         <v>9</v>
       </c>
       <c r="O47" s="114">
-        <f t="shared" ref="O47:O51" si="18">$V$36/O38</f>
+        <f t="shared" ref="O47:O52" si="18">$V$36/O38</f>
         <v>200.58909090909091</v>
       </c>
       <c r="P47" s="82">
@@ -2913,7 +2913,7 @@
         <v>9</v>
       </c>
       <c r="T47" s="114">
-        <f t="shared" ref="T47:T51" si="21">O47*P38</f>
+        <f t="shared" ref="T47:T52" si="21">O47*P38</f>
         <v>5014.727272727273</v>
       </c>
       <c r="U47" s="82">
@@ -2928,66 +2928,66 @@
       <c r="X47" s="18"/>
     </row>
     <row r="48" spans="1:25" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A48" s="143"/>
-      <c r="B48" s="132"/>
-      <c r="C48" s="132"/>
-      <c r="D48" s="132"/>
-      <c r="E48" s="139"/>
-      <c r="F48" s="139"/>
-      <c r="G48" s="139"/>
-      <c r="H48" s="139"/>
-      <c r="I48" s="139"/>
-      <c r="J48" s="139"/>
-      <c r="K48" s="139"/>
-      <c r="L48" s="146"/>
+      <c r="A48" s="160"/>
+      <c r="B48" s="161"/>
+      <c r="C48" s="161"/>
+      <c r="D48" s="161"/>
+      <c r="E48" s="162"/>
+      <c r="F48" s="162"/>
+      <c r="G48" s="162"/>
+      <c r="H48" s="162"/>
+      <c r="I48" s="162"/>
+      <c r="J48" s="162"/>
+      <c r="K48" s="162"/>
+      <c r="L48" s="163"/>
       <c r="M48" s="18"/>
       <c r="N48" s="43">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="O48" s="82">
         <f t="shared" si="18"/>
-        <v>275.81</v>
+        <v>441.29599999999999</v>
       </c>
       <c r="P48" s="82">
         <f t="shared" si="19"/>
-        <v>1672</v>
+        <v>2675.2</v>
       </c>
       <c r="Q48" s="89">
         <f t="shared" si="20"/>
-        <v>492</v>
+        <v>787.2</v>
       </c>
       <c r="R48" s="18"/>
       <c r="S48" s="43">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="T48" s="82">
         <f t="shared" si="21"/>
-        <v>8274.2999999999993</v>
+        <v>7943.3279999999995</v>
       </c>
       <c r="U48" s="82">
         <f t="shared" si="22"/>
-        <v>50160</v>
+        <v>48153.599999999999</v>
       </c>
       <c r="V48" s="89">
         <f t="shared" si="23"/>
-        <v>14760</v>
+        <v>14169.6</v>
       </c>
       <c r="W48" s="18"/>
       <c r="X48" s="18"/>
     </row>
     <row r="49" spans="1:24" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A49" s="143"/>
-      <c r="B49" s="132"/>
-      <c r="C49" s="132"/>
-      <c r="D49" s="132"/>
-      <c r="E49" s="139"/>
-      <c r="F49" s="139"/>
-      <c r="G49" s="139"/>
-      <c r="H49" s="139"/>
-      <c r="I49" s="139"/>
-      <c r="J49" s="139"/>
-      <c r="K49" s="139"/>
-      <c r="L49" s="146"/>
+      <c r="A49" s="160"/>
+      <c r="B49" s="161"/>
+      <c r="C49" s="161"/>
+      <c r="D49" s="161"/>
+      <c r="E49" s="162"/>
+      <c r="F49" s="162"/>
+      <c r="G49" s="162"/>
+      <c r="H49" s="162"/>
+      <c r="I49" s="162"/>
+      <c r="J49" s="162"/>
+      <c r="K49" s="162"/>
+      <c r="L49" s="163"/>
       <c r="M49" s="18"/>
       <c r="N49" s="118">
         <v>18</v>
@@ -3024,18 +3024,18 @@
       <c r="X49" s="18"/>
     </row>
     <row r="50" spans="1:24" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A50" s="143"/>
-      <c r="B50" s="132"/>
-      <c r="C50" s="132"/>
-      <c r="D50" s="132"/>
-      <c r="E50" s="139"/>
-      <c r="F50" s="139"/>
-      <c r="G50" s="139"/>
-      <c r="H50" s="139"/>
-      <c r="I50" s="139"/>
-      <c r="J50" s="139"/>
-      <c r="K50" s="139"/>
-      <c r="L50" s="146"/>
+      <c r="A50" s="160"/>
+      <c r="B50" s="161"/>
+      <c r="C50" s="161"/>
+      <c r="D50" s="161"/>
+      <c r="E50" s="162"/>
+      <c r="F50" s="162"/>
+      <c r="G50" s="162"/>
+      <c r="H50" s="162"/>
+      <c r="I50" s="162"/>
+      <c r="J50" s="162"/>
+      <c r="K50" s="162"/>
+      <c r="L50" s="163"/>
       <c r="M50" s="18"/>
       <c r="N50" s="118">
         <v>20</v>
@@ -3072,10 +3072,10 @@
       <c r="X50" s="18"/>
     </row>
     <row r="51" spans="1:24" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A51" s="143"/>
-      <c r="B51" s="132"/>
-      <c r="C51" s="132"/>
-      <c r="D51" s="132"/>
+      <c r="A51" s="160"/>
+      <c r="B51" s="161"/>
+      <c r="C51" s="161"/>
+      <c r="D51" s="161"/>
       <c r="E51" s="74" t="s">
         <v>64</v>
       </c>
@@ -3097,10 +3097,10 @@
       <c r="K51" s="76" t="s">
         <v>7</v>
       </c>
-      <c r="L51" s="146"/>
+      <c r="L51" s="163"/>
       <c r="M51" s="18"/>
       <c r="N51" s="43">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="O51" s="116">
         <f t="shared" si="18"/>
@@ -3116,7 +3116,7 @@
       </c>
       <c r="R51" s="18"/>
       <c r="S51" s="43">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="T51" s="116">
         <f t="shared" si="21"/>
@@ -3134,10 +3134,10 @@
       <c r="X51" s="18"/>
     </row>
     <row r="52" spans="1:24" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A52" s="143"/>
-      <c r="B52" s="132"/>
-      <c r="C52" s="132"/>
-      <c r="D52" s="132"/>
+      <c r="A52" s="160"/>
+      <c r="B52" s="161"/>
+      <c r="C52" s="161"/>
+      <c r="D52" s="161"/>
       <c r="E52" s="97">
         <f>A44</f>
         <v>27</v>
@@ -3166,25 +3166,25 @@
         <f t="shared" si="24"/>
         <v>12705</v>
       </c>
-      <c r="L52" s="146"/>
+      <c r="L52" s="163"/>
       <c r="M52" s="18"/>
-      <c r="N52" s="32"/>
-      <c r="O52" s="18"/>
-      <c r="P52" s="18"/>
-      <c r="Q52" s="18"/>
+      <c r="N52" s="43"/>
+      <c r="O52" s="116"/>
+      <c r="P52" s="116"/>
+      <c r="Q52" s="117"/>
       <c r="R52" s="18"/>
-      <c r="S52" s="18"/>
-      <c r="T52" s="18"/>
-      <c r="U52" s="18"/>
-      <c r="V52" s="94"/>
+      <c r="S52" s="43"/>
+      <c r="T52" s="116"/>
+      <c r="U52" s="116"/>
+      <c r="V52" s="117"/>
       <c r="W52" s="18"/>
       <c r="X52" s="18"/>
     </row>
     <row r="53" spans="1:24" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A53" s="143"/>
-      <c r="B53" s="132"/>
-      <c r="C53" s="132"/>
-      <c r="D53" s="132"/>
+      <c r="A53" s="160"/>
+      <c r="B53" s="161"/>
+      <c r="C53" s="161"/>
+      <c r="D53" s="161"/>
       <c r="E53" s="97">
         <f t="shared" ref="E53:E54" si="25">A45</f>
         <v>29</v>
@@ -3213,7 +3213,7 @@
         <f t="shared" si="26"/>
         <v>10725</v>
       </c>
-      <c r="L53" s="146"/>
+      <c r="L53" s="163"/>
       <c r="M53" s="18"/>
       <c r="N53" s="43"/>
       <c r="O53" s="18"/>
@@ -3228,10 +3228,10 @@
       <c r="X53" s="18"/>
     </row>
     <row r="54" spans="1:24" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A54" s="143"/>
-      <c r="B54" s="132"/>
-      <c r="C54" s="132"/>
-      <c r="D54" s="132"/>
+      <c r="A54" s="160"/>
+      <c r="B54" s="161"/>
+      <c r="C54" s="161"/>
+      <c r="D54" s="161"/>
       <c r="E54" s="97">
         <f t="shared" si="25"/>
         <v>46</v>
@@ -3260,7 +3260,7 @@
         <f t="shared" si="27"/>
         <v>14116.666666666666</v>
       </c>
-      <c r="L54" s="146"/>
+      <c r="L54" s="163"/>
       <c r="M54" s="18"/>
       <c r="N54" s="43"/>
       <c r="O54" s="18"/>
@@ -3275,18 +3275,18 @@
       <c r="X54" s="18"/>
     </row>
     <row r="55" spans="1:24" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A55" s="144"/>
-      <c r="B55" s="145"/>
-      <c r="C55" s="145"/>
-      <c r="D55" s="145"/>
-      <c r="E55" s="148"/>
-      <c r="F55" s="148"/>
-      <c r="G55" s="148"/>
-      <c r="H55" s="148"/>
-      <c r="I55" s="148"/>
-      <c r="J55" s="148"/>
-      <c r="K55" s="148"/>
-      <c r="L55" s="147"/>
+      <c r="A55" s="153"/>
+      <c r="B55" s="154"/>
+      <c r="C55" s="154"/>
+      <c r="D55" s="154"/>
+      <c r="E55" s="165"/>
+      <c r="F55" s="165"/>
+      <c r="G55" s="165"/>
+      <c r="H55" s="165"/>
+      <c r="I55" s="165"/>
+      <c r="J55" s="165"/>
+      <c r="K55" s="165"/>
+      <c r="L55" s="164"/>
       <c r="M55" s="18"/>
       <c r="N55" s="95"/>
       <c r="O55" s="96"/>
@@ -3301,14 +3301,14 @@
       <c r="X55" s="18"/>
     </row>
     <row r="56" spans="1:24" x14ac:dyDescent="0.3">
-      <c r="A56" s="141"/>
-      <c r="B56" s="142"/>
-      <c r="C56" s="142"/>
-      <c r="D56" s="142"/>
-      <c r="E56" s="142"/>
-      <c r="F56" s="142"/>
-      <c r="G56" s="142"/>
-      <c r="H56" s="155"/>
+      <c r="A56" s="150"/>
+      <c r="B56" s="151"/>
+      <c r="C56" s="151"/>
+      <c r="D56" s="151"/>
+      <c r="E56" s="151"/>
+      <c r="F56" s="151"/>
+      <c r="G56" s="151"/>
+      <c r="H56" s="152"/>
       <c r="I56" s="18"/>
       <c r="J56" s="18"/>
       <c r="K56" s="18"/>
@@ -3317,49 +3317,49 @@
       <c r="N56" s="121" t="s">
         <v>66</v>
       </c>
-      <c r="O56" s="135" t="s">
+      <c r="O56" s="144" t="s">
         <v>68</v>
       </c>
-      <c r="P56" s="136"/>
+      <c r="P56" s="145"/>
       <c r="Q56" s="105" t="s">
         <v>66</v>
       </c>
-      <c r="R56" s="161" t="s">
+      <c r="R56" s="142" t="s">
         <v>70</v>
       </c>
-      <c r="S56" s="135" t="s">
+      <c r="S56" s="144" t="s">
         <v>71</v>
       </c>
-      <c r="T56" s="136"/>
+      <c r="T56" s="145"/>
       <c r="U56" s="18"/>
       <c r="V56" s="18"/>
       <c r="W56" s="18"/>
       <c r="X56" s="18"/>
     </row>
     <row r="57" spans="1:24" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A57" s="144"/>
-      <c r="B57" s="145"/>
-      <c r="C57" s="145"/>
-      <c r="D57" s="145"/>
-      <c r="E57" s="145"/>
-      <c r="F57" s="145"/>
-      <c r="G57" s="145"/>
-      <c r="H57" s="156"/>
+      <c r="A57" s="153"/>
+      <c r="B57" s="154"/>
+      <c r="C57" s="154"/>
+      <c r="D57" s="154"/>
+      <c r="E57" s="154"/>
+      <c r="F57" s="154"/>
+      <c r="G57" s="154"/>
+      <c r="H57" s="155"/>
       <c r="I57" s="18"/>
       <c r="J57" s="18"/>
       <c r="N57" s="122" t="s">
         <v>67</v>
       </c>
-      <c r="O57" s="137"/>
-      <c r="P57" s="138"/>
+      <c r="O57" s="146"/>
+      <c r="P57" s="147"/>
       <c r="Q57" s="106" t="s">
         <v>69</v>
       </c>
-      <c r="R57" s="162"/>
-      <c r="S57" s="137" t="s">
+      <c r="R57" s="143"/>
+      <c r="S57" s="146" t="s">
         <v>72</v>
       </c>
-      <c r="T57" s="138"/>
+      <c r="T57" s="147"/>
       <c r="U57" s="18"/>
       <c r="V57" s="18"/>
       <c r="W57" s="18"/>
@@ -3369,35 +3369,35 @@
       <c r="A58" s="101" t="s">
         <v>66</v>
       </c>
-      <c r="B58" s="157" t="s">
+      <c r="B58" s="156" t="s">
         <v>68</v>
       </c>
-      <c r="C58" s="158"/>
+      <c r="C58" s="157"/>
       <c r="D58" s="105" t="s">
         <v>66</v>
       </c>
-      <c r="E58" s="157" t="s">
+      <c r="E58" s="156" t="s">
         <v>70</v>
       </c>
-      <c r="F58" s="158"/>
-      <c r="G58" s="157" t="s">
+      <c r="F58" s="157"/>
+      <c r="G58" s="156" t="s">
         <v>71</v>
       </c>
-      <c r="H58" s="158"/>
+      <c r="H58" s="157"/>
       <c r="I58" s="18"/>
       <c r="J58" s="18"/>
       <c r="N58" s="103"/>
-      <c r="O58" s="153" t="s">
+      <c r="O58" s="148" t="s">
         <v>88</v>
       </c>
       <c r="P58" s="106" t="s">
         <v>74</v>
       </c>
       <c r="Q58" s="107"/>
-      <c r="R58" s="153" t="s">
+      <c r="R58" s="148" t="s">
         <v>76</v>
       </c>
-      <c r="S58" s="153" t="s">
+      <c r="S58" s="148" t="s">
         <v>78</v>
       </c>
       <c r="T58" s="106" t="s">
@@ -3412,26 +3412,26 @@
       <c r="A59" s="102" t="s">
         <v>67</v>
       </c>
-      <c r="B59" s="159"/>
-      <c r="C59" s="160"/>
+      <c r="B59" s="158"/>
+      <c r="C59" s="159"/>
       <c r="D59" s="106" t="s">
         <v>69</v>
       </c>
-      <c r="E59" s="159"/>
-      <c r="F59" s="160"/>
-      <c r="G59" s="159" t="s">
+      <c r="E59" s="158"/>
+      <c r="F59" s="159"/>
+      <c r="G59" s="158" t="s">
         <v>72</v>
       </c>
-      <c r="H59" s="160"/>
+      <c r="H59" s="159"/>
       <c r="I59" s="18"/>
       <c r="N59" s="104"/>
-      <c r="O59" s="154"/>
+      <c r="O59" s="149"/>
       <c r="P59" s="61" t="s">
         <v>75</v>
       </c>
       <c r="Q59" s="108"/>
-      <c r="R59" s="154"/>
-      <c r="S59" s="154"/>
+      <c r="R59" s="149"/>
+      <c r="S59" s="149"/>
       <c r="T59" s="61" t="s">
         <v>79</v>
       </c>
@@ -3442,20 +3442,20 @@
     </row>
     <row r="60" spans="1:24" ht="14.4" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A60" s="103"/>
-      <c r="B60" s="153" t="s">
+      <c r="B60" s="148" t="s">
         <v>73</v>
       </c>
       <c r="C60" s="106" t="s">
         <v>74</v>
       </c>
       <c r="D60" s="107"/>
-      <c r="E60" s="153" t="s">
+      <c r="E60" s="148" t="s">
         <v>76</v>
       </c>
-      <c r="F60" s="153" t="s">
+      <c r="F60" s="148" t="s">
         <v>77</v>
       </c>
-      <c r="G60" s="153" t="s">
+      <c r="G60" s="148" t="s">
         <v>78</v>
       </c>
       <c r="H60" s="106" t="s">
@@ -3480,11 +3480,13 @@
         <f>V36</f>
         <v>551.62</v>
       </c>
-      <c r="S60" s="52">
-        <v>238</v>
-      </c>
-      <c r="T60" s="61">
-        <v>5962</v>
+      <c r="S60" s="109">
+        <f>O47</f>
+        <v>200.58909090909091</v>
+      </c>
+      <c r="T60" s="110">
+        <f>T47</f>
+        <v>5014.727272727273</v>
       </c>
       <c r="U60" s="18"/>
       <c r="V60" s="18"/>
@@ -3493,14 +3495,14 @@
     </row>
     <row r="61" spans="1:24" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A61" s="104"/>
-      <c r="B61" s="154"/>
+      <c r="B61" s="149"/>
       <c r="C61" s="61" t="s">
         <v>75</v>
       </c>
       <c r="D61" s="108"/>
-      <c r="E61" s="154"/>
-      <c r="F61" s="154"/>
-      <c r="G61" s="154"/>
+      <c r="E61" s="149"/>
+      <c r="F61" s="149"/>
+      <c r="G61" s="149"/>
       <c r="H61" s="61" t="s">
         <v>79</v>
       </c>
@@ -3508,7 +3510,7 @@
         <v>92</v>
       </c>
       <c r="J61" s="5"/>
-      <c r="K61" s="169"/>
+      <c r="K61" s="137"/>
       <c r="L61" s="18"/>
       <c r="M61" s="18"/>
       <c r="N61" s="51">
@@ -3527,11 +3529,13 @@
         <f>V38</f>
         <v>984</v>
       </c>
-      <c r="S61" s="52">
-        <v>887</v>
-      </c>
-      <c r="T61" s="52">
-        <v>22187</v>
+      <c r="S61" s="109">
+        <f>Q49</f>
+        <v>437.33333333333331</v>
+      </c>
+      <c r="T61" s="109">
+        <f>V49</f>
+        <v>10933.333333333332</v>
       </c>
       <c r="U61" s="18"/>
       <c r="V61" s="18"/>
@@ -3540,15 +3544,15 @@
     </row>
     <row r="62" spans="1:24" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A62" s="14">
-        <f>A44</f>
+        <f t="shared" ref="A62:C63" si="28">A44</f>
         <v>27</v>
       </c>
       <c r="B62" s="52">
-        <f>B44</f>
+        <f t="shared" si="28"/>
         <v>1.25</v>
       </c>
       <c r="C62" s="52">
-        <f>C44</f>
+        <f t="shared" si="28"/>
         <v>35</v>
       </c>
       <c r="D62" s="52" t="s">
@@ -3571,7 +3575,7 @@
         <v>91</v>
       </c>
       <c r="J62" s="5"/>
-      <c r="K62" s="169"/>
+      <c r="K62" s="137"/>
       <c r="M62" s="18"/>
       <c r="N62" s="51">
         <v>20</v>
@@ -3589,11 +3593,13 @@
         <f>V37</f>
         <v>3344</v>
       </c>
-      <c r="S62" s="52">
-        <v>631</v>
-      </c>
-      <c r="T62" s="52">
-        <v>18920</v>
+      <c r="S62" s="109">
+        <f>P50</f>
+        <v>1114.6666666666667</v>
+      </c>
+      <c r="T62" s="109">
+        <f>U50</f>
+        <v>33440</v>
       </c>
       <c r="U62" s="18"/>
       <c r="V62" s="18"/>
@@ -3602,15 +3608,15 @@
     </row>
     <row r="63" spans="1:24" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A63" s="14">
-        <f>A45</f>
+        <f t="shared" si="28"/>
         <v>29</v>
       </c>
       <c r="B63" s="52">
-        <f>B45</f>
+        <f t="shared" si="28"/>
         <v>2.75</v>
       </c>
       <c r="C63" s="52">
-        <f>C45</f>
+        <f t="shared" si="28"/>
         <v>65</v>
       </c>
       <c r="D63" s="52" t="s">
@@ -3629,7 +3635,7 @@
         <v>10725</v>
       </c>
       <c r="J63" s="5"/>
-      <c r="K63" s="169"/>
+      <c r="K63" s="137"/>
       <c r="M63" s="18"/>
       <c r="N63" s="18"/>
       <c r="O63" s="18"/>
@@ -3671,7 +3677,7 @@
       <c r="H64" s="109">
         <v>13567</v>
       </c>
-      <c r="K64" s="169"/>
+      <c r="K64" s="137"/>
       <c r="M64" s="18"/>
       <c r="N64" s="18"/>
       <c r="O64" s="18"/>
@@ -3710,7 +3716,7 @@
       <c r="H65" s="109">
         <v>10267</v>
       </c>
-      <c r="K65" s="170"/>
+      <c r="K65" s="138"/>
       <c r="L65" s="18"/>
       <c r="M65" s="18"/>
       <c r="N65" s="18"/>
@@ -3721,7 +3727,10 @@
       <c r="S65" s="18"/>
       <c r="T65" s="18"/>
       <c r="U65" s="18"/>
-      <c r="V65" s="18"/>
+      <c r="V65" s="18">
+        <f>201+437</f>
+        <v>638</v>
+      </c>
       <c r="W65" s="18"/>
       <c r="X65" s="18"/>
     </row>
@@ -3741,7 +3750,7 @@
       <c r="D66" s="11" t="s">
         <v>27</v>
       </c>
-      <c r="E66" s="171">
+      <c r="E66" s="139">
         <v>331</v>
       </c>
       <c r="F66" s="110">
@@ -3754,7 +3763,7 @@
         <v>10301</v>
       </c>
       <c r="J66" s="3"/>
-      <c r="K66" s="170"/>
+      <c r="K66" s="138"/>
       <c r="L66" s="3"/>
       <c r="M66" s="18"/>
       <c r="N66" s="18"/>
@@ -3765,7 +3774,10 @@
       <c r="S66" s="18"/>
       <c r="T66" s="18"/>
       <c r="U66" s="18"/>
-      <c r="V66" s="18"/>
+      <c r="V66" s="18">
+        <f>1115+201</f>
+        <v>1316</v>
+      </c>
       <c r="W66" s="18"/>
       <c r="X66" s="18"/>
     </row>
@@ -3794,15 +3806,15 @@
       <c r="H67" s="109">
         <v>9244</v>
       </c>
-      <c r="J67" s="169"/>
-      <c r="K67" s="170"/>
+      <c r="J67" s="137"/>
+      <c r="K67" s="138"/>
       <c r="L67" s="3"/>
-      <c r="M67" s="170"/>
-      <c r="N67" s="170"/>
+      <c r="M67" s="138"/>
+      <c r="N67" s="138"/>
       <c r="O67" s="9"/>
-      <c r="P67" s="170"/>
-      <c r="Q67" s="170"/>
-      <c r="R67" s="170"/>
+      <c r="P67" s="138"/>
+      <c r="Q67" s="138"/>
+      <c r="R67" s="138"/>
       <c r="S67" s="18"/>
       <c r="T67" s="18"/>
       <c r="U67" s="18"/>
@@ -3814,7 +3826,7 @@
       <c r="A68" s="18"/>
       <c r="B68" s="18"/>
       <c r="C68" s="18"/>
-      <c r="D68" s="172" t="s">
+      <c r="D68" s="140" t="s">
         <v>93</v>
       </c>
       <c r="F68" s="117">
@@ -3824,8 +3836,8 @@
       <c r="G68" s="18"/>
       <c r="H68" s="18"/>
       <c r="I68" s="18"/>
-      <c r="J68" s="169"/>
-      <c r="K68" s="170"/>
+      <c r="J68" s="137"/>
+      <c r="K68" s="138"/>
       <c r="L68" s="3"/>
       <c r="M68" s="18"/>
       <c r="N68" s="18"/>
@@ -3850,7 +3862,7 @@
       <c r="G69" s="18"/>
       <c r="H69" s="18"/>
       <c r="I69" s="18"/>
-      <c r="J69" s="168"/>
+      <c r="J69" s="136"/>
       <c r="K69" s="9"/>
       <c r="L69" s="3"/>
       <c r="M69" s="18"/>
@@ -3876,8 +3888,8 @@
       <c r="G70" s="18"/>
       <c r="H70" s="18"/>
       <c r="I70" s="18"/>
-      <c r="J70" s="169"/>
-      <c r="K70" s="170"/>
+      <c r="J70" s="137"/>
+      <c r="K70" s="138"/>
       <c r="L70" s="3"/>
       <c r="M70" s="18"/>
       <c r="N70" s="18"/>
@@ -3894,8 +3906,8 @@
     </row>
     <row r="71" spans="1:24" x14ac:dyDescent="0.3">
       <c r="I71" s="18"/>
-      <c r="J71" s="169"/>
-      <c r="K71" s="170"/>
+      <c r="J71" s="137"/>
+      <c r="K71" s="138"/>
       <c r="L71" s="3"/>
       <c r="M71" s="18"/>
       <c r="N71" s="18"/>
@@ -3920,8 +3932,8 @@
       <c r="G72" s="18"/>
       <c r="H72" s="18"/>
       <c r="I72" s="18"/>
-      <c r="J72" s="169"/>
-      <c r="K72" s="170"/>
+      <c r="J72" s="137"/>
+      <c r="K72" s="138"/>
       <c r="L72" s="3"/>
       <c r="M72" s="18"/>
       <c r="N72" s="18"/>
@@ -4097,7 +4109,7 @@
       <c r="C79" s="18"/>
       <c r="D79" s="18"/>
       <c r="E79" s="18"/>
-      <c r="F79" s="132"/>
+      <c r="F79" s="161"/>
       <c r="G79" s="18"/>
       <c r="H79" s="18"/>
       <c r="I79" s="18"/>
@@ -4123,7 +4135,7 @@
       <c r="C80" s="18"/>
       <c r="D80" s="18"/>
       <c r="E80" s="18"/>
-      <c r="F80" s="132"/>
+      <c r="F80" s="161"/>
       <c r="G80" s="18"/>
       <c r="H80" s="18"/>
       <c r="I80" s="18"/>
@@ -4400,13 +4412,12 @@
     <sortCondition ref="J67:J72"/>
   </sortState>
   <mergeCells count="31">
-    <mergeCell ref="A22:F22"/>
-    <mergeCell ref="R56:R57"/>
-    <mergeCell ref="S56:T56"/>
-    <mergeCell ref="S57:T57"/>
-    <mergeCell ref="O58:O59"/>
-    <mergeCell ref="S58:S59"/>
-    <mergeCell ref="R58:R59"/>
+    <mergeCell ref="K34:L41"/>
+    <mergeCell ref="F79:F80"/>
+    <mergeCell ref="N34:O34"/>
+    <mergeCell ref="O56:P57"/>
+    <mergeCell ref="I34:J35"/>
+    <mergeCell ref="E34:H34"/>
     <mergeCell ref="B60:B61"/>
     <mergeCell ref="E60:E61"/>
     <mergeCell ref="F60:F61"/>
@@ -4416,6 +4427,13 @@
     <mergeCell ref="E58:F59"/>
     <mergeCell ref="G58:H58"/>
     <mergeCell ref="G59:H59"/>
+    <mergeCell ref="A22:F22"/>
+    <mergeCell ref="R56:R57"/>
+    <mergeCell ref="S56:T56"/>
+    <mergeCell ref="S57:T57"/>
+    <mergeCell ref="O58:O59"/>
+    <mergeCell ref="S58:S59"/>
+    <mergeCell ref="R58:R59"/>
     <mergeCell ref="A34:C34"/>
     <mergeCell ref="A42:C42"/>
     <mergeCell ref="A47:D55"/>
@@ -4425,12 +4443,6 @@
     <mergeCell ref="D34:D46"/>
     <mergeCell ref="E42:L43"/>
     <mergeCell ref="L44:L47"/>
-    <mergeCell ref="K34:L41"/>
-    <mergeCell ref="F79:F80"/>
-    <mergeCell ref="N34:O34"/>
-    <mergeCell ref="O56:P57"/>
-    <mergeCell ref="I34:J35"/>
-    <mergeCell ref="E34:H34"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>

--- a/Zaoch/19/лаб1,3,4.xlsx
+++ b/Zaoch/19/лаб1,3,4.xlsx
@@ -1,25 +1,31 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22527"/>
   <workbookPr codeName="ЭтаКнига" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\nikit\Desktop\PAS\Zaoch\19\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\levotskiy\Desktop\PAS\PAS\Zaoch\19\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BD5BA7B0-B5D5-45AB-926B-7BF3FFC1E46A}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B81267B7-37A6-48D4-AE51-6D05A2C4A25C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8964" xr2:uid="{41422B86-A465-485E-A3F6-9BAAF425347B}"/>
+    <workbookView xWindow="1920" yWindow="1920" windowWidth="17280" windowHeight="8964" xr2:uid="{41422B86-A465-485E-A3F6-9BAAF425347B}"/>
   </bookViews>
   <sheets>
     <sheet name="Лаба" sheetId="1" r:id="rId1"/>
     <sheet name="Стоимость_разработки" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="179021"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
@@ -957,6 +963,75 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -966,66 +1041,9 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1039,18 +1057,6 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="0" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -1370,8 +1376,8 @@
   <sheetPr codeName="Лист1"/>
   <dimension ref="A1:Y108"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="L1" zoomScale="66" zoomScaleNormal="25" workbookViewId="0">
-      <selection activeCell="W15" sqref="W15"/>
+    <sheetView tabSelected="1" topLeftCell="A7" zoomScale="56" zoomScaleNormal="56" workbookViewId="0">
+      <selection activeCell="J23" sqref="J23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1583,14 +1589,14 @@
       </c>
     </row>
     <row r="22" spans="1:25" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A22" s="141" t="s">
+      <c r="A22" s="164" t="s">
         <v>90</v>
       </c>
-      <c r="B22" s="141"/>
-      <c r="C22" s="141"/>
-      <c r="D22" s="141"/>
-      <c r="E22" s="141"/>
-      <c r="F22" s="141"/>
+      <c r="B22" s="164"/>
+      <c r="C22" s="164"/>
+      <c r="D22" s="164"/>
+      <c r="E22" s="164"/>
+      <c r="F22" s="164"/>
       <c r="I22" s="64" t="s">
         <v>8</v>
       </c>
@@ -2159,24 +2165,24 @@
       </c>
     </row>
     <row r="34" spans="1:25" x14ac:dyDescent="0.3">
-      <c r="A34" s="150" t="s">
+      <c r="A34" s="154" t="s">
         <v>65</v>
       </c>
-      <c r="B34" s="151"/>
-      <c r="C34" s="151"/>
-      <c r="D34" s="151"/>
-      <c r="E34" s="172"/>
-      <c r="F34" s="172"/>
-      <c r="G34" s="172"/>
-      <c r="H34" s="172"/>
-      <c r="I34" s="169"/>
-      <c r="J34" s="169"/>
-      <c r="K34" s="169"/>
-      <c r="L34" s="170"/>
-      <c r="N34" s="171" t="s">
+      <c r="B34" s="155"/>
+      <c r="C34" s="155"/>
+      <c r="D34" s="155"/>
+      <c r="E34" s="151"/>
+      <c r="F34" s="151"/>
+      <c r="G34" s="151"/>
+      <c r="H34" s="151"/>
+      <c r="I34" s="141"/>
+      <c r="J34" s="141"/>
+      <c r="K34" s="141"/>
+      <c r="L34" s="142"/>
+      <c r="N34" s="146" t="s">
         <v>80</v>
       </c>
-      <c r="O34" s="169"/>
+      <c r="O34" s="141"/>
       <c r="P34" s="20"/>
       <c r="Q34" s="20"/>
       <c r="R34" s="20"/>
@@ -2196,7 +2202,7 @@
       <c r="C35" s="18" t="s">
         <v>54</v>
       </c>
-      <c r="D35" s="161"/>
+      <c r="D35" s="145"/>
       <c r="E35" s="93" t="s">
         <v>55</v>
       </c>
@@ -2205,10 +2211,10 @@
       <c r="H35" s="3" t="s">
         <v>56</v>
       </c>
-      <c r="I35" s="162"/>
-      <c r="J35" s="162"/>
-      <c r="K35" s="162"/>
-      <c r="L35" s="163"/>
+      <c r="I35" s="143"/>
+      <c r="J35" s="143"/>
+      <c r="K35" s="143"/>
+      <c r="L35" s="144"/>
       <c r="N35" s="32"/>
       <c r="O35" s="3"/>
       <c r="P35" s="3"/>
@@ -2239,7 +2245,7 @@
         <f>B$28/B36</f>
         <v>574</v>
       </c>
-      <c r="D36" s="161"/>
+      <c r="D36" s="145"/>
       <c r="E36" s="81">
         <v>198</v>
       </c>
@@ -2260,8 +2266,8 @@
         <f>F36</f>
         <v>п4</v>
       </c>
-      <c r="K36" s="162"/>
-      <c r="L36" s="163"/>
+      <c r="K36" s="143"/>
+      <c r="L36" s="144"/>
       <c r="M36" s="18"/>
       <c r="N36" s="43" t="s">
         <v>60</v>
@@ -2304,7 +2310,7 @@
         <f>C$28/B37</f>
         <v>330</v>
       </c>
-      <c r="D37" s="161"/>
+      <c r="D37" s="145"/>
       <c r="E37" s="81">
         <v>297.14285714285711</v>
       </c>
@@ -2325,8 +2331,8 @@
         <f t="shared" ref="J37:J41" si="9">F37</f>
         <v>п5</v>
       </c>
-      <c r="K37" s="162"/>
-      <c r="L37" s="163"/>
+      <c r="K37" s="143"/>
+      <c r="L37" s="144"/>
       <c r="M37" s="18"/>
       <c r="N37" s="43">
         <v>2</v>
@@ -2371,7 +2377,7 @@
         <f>D$28/B38</f>
         <v>331.11111111111114</v>
       </c>
-      <c r="D38" s="161"/>
+      <c r="D38" s="145"/>
       <c r="E38" s="81">
         <v>330</v>
       </c>
@@ -2392,8 +2398,8 @@
         <f t="shared" si="9"/>
         <v>п2</v>
       </c>
-      <c r="K38" s="162"/>
-      <c r="L38" s="163"/>
+      <c r="K38" s="143"/>
+      <c r="L38" s="144"/>
       <c r="M38" s="18"/>
       <c r="N38" s="118">
         <v>9</v>
@@ -2438,7 +2444,7 @@
         <f>E$28/B39</f>
         <v>198</v>
       </c>
-      <c r="D39" s="161"/>
+      <c r="D39" s="145"/>
       <c r="E39" s="81">
         <v>331.11111111111114</v>
       </c>
@@ -2459,8 +2465,8 @@
         <f t="shared" si="9"/>
         <v>п3</v>
       </c>
-      <c r="K39" s="162"/>
-      <c r="L39" s="163"/>
+      <c r="K39" s="143"/>
+      <c r="L39" s="144"/>
       <c r="M39" s="18"/>
       <c r="N39" s="43">
         <v>17</v>
@@ -2494,7 +2500,7 @@
         <f>F$28/B40</f>
         <v>297.14285714285711</v>
       </c>
-      <c r="D40" s="161"/>
+      <c r="D40" s="145"/>
       <c r="E40" s="81">
         <v>453.75</v>
       </c>
@@ -2515,8 +2521,8 @@
         <f t="shared" si="9"/>
         <v>п6</v>
       </c>
-      <c r="K40" s="162"/>
-      <c r="L40" s="163"/>
+      <c r="K40" s="143"/>
+      <c r="L40" s="144"/>
       <c r="M40" s="18"/>
       <c r="N40" s="118">
         <v>18</v>
@@ -2550,7 +2556,7 @@
         <f>G$28/B41</f>
         <v>453.75</v>
       </c>
-      <c r="D41" s="161"/>
+      <c r="D41" s="145"/>
       <c r="E41" s="81">
         <v>574</v>
       </c>
@@ -2571,8 +2577,8 @@
         <f t="shared" si="9"/>
         <v>п1</v>
       </c>
-      <c r="K41" s="162"/>
-      <c r="L41" s="163"/>
+      <c r="K41" s="143"/>
+      <c r="L41" s="144"/>
       <c r="M41" s="18"/>
       <c r="N41" s="118">
         <v>20</v>
@@ -2595,18 +2601,18 @@
       <c r="X41" s="18"/>
     </row>
     <row r="42" spans="1:25" x14ac:dyDescent="0.3">
-      <c r="A42" s="160"/>
-      <c r="B42" s="161"/>
-      <c r="C42" s="161"/>
-      <c r="D42" s="161"/>
-      <c r="E42" s="166"/>
-      <c r="F42" s="166"/>
-      <c r="G42" s="166"/>
-      <c r="H42" s="166"/>
-      <c r="I42" s="166"/>
-      <c r="J42" s="166"/>
-      <c r="K42" s="166"/>
-      <c r="L42" s="167"/>
+      <c r="A42" s="167"/>
+      <c r="B42" s="145"/>
+      <c r="C42" s="145"/>
+      <c r="D42" s="145"/>
+      <c r="E42" s="170"/>
+      <c r="F42" s="170"/>
+      <c r="G42" s="170"/>
+      <c r="H42" s="170"/>
+      <c r="I42" s="170"/>
+      <c r="J42" s="170"/>
+      <c r="K42" s="170"/>
+      <c r="L42" s="171"/>
       <c r="M42" s="18"/>
       <c r="N42" s="43">
         <v>46</v>
@@ -2638,15 +2644,15 @@
       <c r="C43" s="3" t="s">
         <v>62</v>
       </c>
-      <c r="D43" s="161"/>
-      <c r="E43" s="166"/>
-      <c r="F43" s="166"/>
-      <c r="G43" s="166"/>
-      <c r="H43" s="166"/>
-      <c r="I43" s="166"/>
-      <c r="J43" s="166"/>
-      <c r="K43" s="166"/>
-      <c r="L43" s="167"/>
+      <c r="D43" s="145"/>
+      <c r="E43" s="170"/>
+      <c r="F43" s="170"/>
+      <c r="G43" s="170"/>
+      <c r="H43" s="170"/>
+      <c r="I43" s="170"/>
+      <c r="J43" s="170"/>
+      <c r="K43" s="170"/>
+      <c r="L43" s="171"/>
       <c r="M43" s="18"/>
       <c r="N43" s="43">
         <v>46</v>
@@ -2678,7 +2684,7 @@
       <c r="C44" s="100">
         <v>35</v>
       </c>
-      <c r="D44" s="161"/>
+      <c r="D44" s="145"/>
       <c r="E44" s="74" t="s">
         <v>63</v>
       </c>
@@ -2700,7 +2706,7 @@
       <c r="K44" s="76" t="s">
         <v>7</v>
       </c>
-      <c r="L44" s="168"/>
+      <c r="L44" s="172"/>
       <c r="M44" s="18"/>
       <c r="N44" s="43"/>
       <c r="O44" s="18"/>
@@ -2724,7 +2730,7 @@
       <c r="C45" s="100">
         <v>65</v>
       </c>
-      <c r="D45" s="161"/>
+      <c r="D45" s="145"/>
       <c r="E45" s="97">
         <f>A44</f>
         <v>27</v>
@@ -2753,7 +2759,7 @@
         <f>$C$41/$B44</f>
         <v>363</v>
       </c>
-      <c r="L45" s="168"/>
+      <c r="L45" s="172"/>
       <c r="M45" s="18"/>
       <c r="N45" s="128" t="s">
         <v>84</v>
@@ -2793,7 +2799,7 @@
       <c r="C46" s="100">
         <v>70</v>
       </c>
-      <c r="D46" s="161"/>
+      <c r="D46" s="145"/>
       <c r="E46" s="78">
         <f t="shared" ref="E46:E47" si="11">A45</f>
         <v>29</v>
@@ -2822,7 +2828,7 @@
         <f t="shared" ref="K46:K47" si="16">$C$41/$B45</f>
         <v>165</v>
       </c>
-      <c r="L46" s="168"/>
+      <c r="L46" s="172"/>
       <c r="M46" s="18"/>
       <c r="N46" s="43">
         <v>2</v>
@@ -2859,10 +2865,10 @@
       <c r="X46" s="18"/>
     </row>
     <row r="47" spans="1:25" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A47" s="160"/>
-      <c r="B47" s="161"/>
-      <c r="C47" s="161"/>
-      <c r="D47" s="161"/>
+      <c r="A47" s="167"/>
+      <c r="B47" s="145"/>
+      <c r="C47" s="145"/>
+      <c r="D47" s="145"/>
       <c r="E47" s="97">
         <f t="shared" si="11"/>
         <v>46</v>
@@ -2891,13 +2897,13 @@
         <f t="shared" si="16"/>
         <v>201.66666666666666</v>
       </c>
-      <c r="L47" s="168"/>
+      <c r="L47" s="172"/>
       <c r="M47" s="18"/>
       <c r="N47" s="118">
         <v>9</v>
       </c>
       <c r="O47" s="114">
-        <f t="shared" ref="O47:O52" si="18">$V$36/O38</f>
+        <f t="shared" ref="O47:O51" si="18">$V$36/O38</f>
         <v>200.58909090909091</v>
       </c>
       <c r="P47" s="82">
@@ -2913,7 +2919,7 @@
         <v>9</v>
       </c>
       <c r="T47" s="114">
-        <f t="shared" ref="T47:T52" si="21">O47*P38</f>
+        <f t="shared" ref="T47:T51" si="21">O47*P38</f>
         <v>5014.727272727273</v>
       </c>
       <c r="U47" s="82">
@@ -2928,18 +2934,18 @@
       <c r="X47" s="18"/>
     </row>
     <row r="48" spans="1:25" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A48" s="160"/>
-      <c r="B48" s="161"/>
-      <c r="C48" s="161"/>
-      <c r="D48" s="161"/>
-      <c r="E48" s="162"/>
-      <c r="F48" s="162"/>
-      <c r="G48" s="162"/>
-      <c r="H48" s="162"/>
-      <c r="I48" s="162"/>
-      <c r="J48" s="162"/>
-      <c r="K48" s="162"/>
-      <c r="L48" s="163"/>
+      <c r="A48" s="167"/>
+      <c r="B48" s="145"/>
+      <c r="C48" s="145"/>
+      <c r="D48" s="145"/>
+      <c r="E48" s="143"/>
+      <c r="F48" s="143"/>
+      <c r="G48" s="143"/>
+      <c r="H48" s="143"/>
+      <c r="I48" s="143"/>
+      <c r="J48" s="143"/>
+      <c r="K48" s="143"/>
+      <c r="L48" s="144"/>
       <c r="M48" s="18"/>
       <c r="N48" s="43">
         <v>17</v>
@@ -2976,18 +2982,18 @@
       <c r="X48" s="18"/>
     </row>
     <row r="49" spans="1:24" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A49" s="160"/>
-      <c r="B49" s="161"/>
-      <c r="C49" s="161"/>
-      <c r="D49" s="161"/>
-      <c r="E49" s="162"/>
-      <c r="F49" s="162"/>
-      <c r="G49" s="162"/>
-      <c r="H49" s="162"/>
-      <c r="I49" s="162"/>
-      <c r="J49" s="162"/>
-      <c r="K49" s="162"/>
-      <c r="L49" s="163"/>
+      <c r="A49" s="167"/>
+      <c r="B49" s="145"/>
+      <c r="C49" s="145"/>
+      <c r="D49" s="145"/>
+      <c r="E49" s="143"/>
+      <c r="F49" s="143"/>
+      <c r="G49" s="143"/>
+      <c r="H49" s="143"/>
+      <c r="I49" s="143"/>
+      <c r="J49" s="143"/>
+      <c r="K49" s="143"/>
+      <c r="L49" s="144"/>
       <c r="M49" s="18"/>
       <c r="N49" s="118">
         <v>18</v>
@@ -3024,18 +3030,18 @@
       <c r="X49" s="18"/>
     </row>
     <row r="50" spans="1:24" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A50" s="160"/>
-      <c r="B50" s="161"/>
-      <c r="C50" s="161"/>
-      <c r="D50" s="161"/>
-      <c r="E50" s="162"/>
-      <c r="F50" s="162"/>
-      <c r="G50" s="162"/>
-      <c r="H50" s="162"/>
-      <c r="I50" s="162"/>
-      <c r="J50" s="162"/>
-      <c r="K50" s="162"/>
-      <c r="L50" s="163"/>
+      <c r="A50" s="167"/>
+      <c r="B50" s="145"/>
+      <c r="C50" s="145"/>
+      <c r="D50" s="145"/>
+      <c r="E50" s="143"/>
+      <c r="F50" s="143"/>
+      <c r="G50" s="143"/>
+      <c r="H50" s="143"/>
+      <c r="I50" s="143"/>
+      <c r="J50" s="143"/>
+      <c r="K50" s="143"/>
+      <c r="L50" s="144"/>
       <c r="M50" s="18"/>
       <c r="N50" s="118">
         <v>20</v>
@@ -3072,10 +3078,10 @@
       <c r="X50" s="18"/>
     </row>
     <row r="51" spans="1:24" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A51" s="160"/>
-      <c r="B51" s="161"/>
-      <c r="C51" s="161"/>
-      <c r="D51" s="161"/>
+      <c r="A51" s="167"/>
+      <c r="B51" s="145"/>
+      <c r="C51" s="145"/>
+      <c r="D51" s="145"/>
       <c r="E51" s="74" t="s">
         <v>64</v>
       </c>
@@ -3097,7 +3103,7 @@
       <c r="K51" s="76" t="s">
         <v>7</v>
       </c>
-      <c r="L51" s="163"/>
+      <c r="L51" s="144"/>
       <c r="M51" s="18"/>
       <c r="N51" s="43">
         <v>46</v>
@@ -3134,10 +3140,10 @@
       <c r="X51" s="18"/>
     </row>
     <row r="52" spans="1:24" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A52" s="160"/>
-      <c r="B52" s="161"/>
-      <c r="C52" s="161"/>
-      <c r="D52" s="161"/>
+      <c r="A52" s="167"/>
+      <c r="B52" s="145"/>
+      <c r="C52" s="145"/>
+      <c r="D52" s="145"/>
       <c r="E52" s="97">
         <f>A44</f>
         <v>27</v>
@@ -3166,7 +3172,7 @@
         <f t="shared" si="24"/>
         <v>12705</v>
       </c>
-      <c r="L52" s="163"/>
+      <c r="L52" s="144"/>
       <c r="M52" s="18"/>
       <c r="N52" s="43"/>
       <c r="O52" s="116"/>
@@ -3181,10 +3187,10 @@
       <c r="X52" s="18"/>
     </row>
     <row r="53" spans="1:24" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A53" s="160"/>
-      <c r="B53" s="161"/>
-      <c r="C53" s="161"/>
-      <c r="D53" s="161"/>
+      <c r="A53" s="167"/>
+      <c r="B53" s="145"/>
+      <c r="C53" s="145"/>
+      <c r="D53" s="145"/>
       <c r="E53" s="97">
         <f t="shared" ref="E53:E54" si="25">A45</f>
         <v>29</v>
@@ -3213,7 +3219,7 @@
         <f t="shared" si="26"/>
         <v>10725</v>
       </c>
-      <c r="L53" s="163"/>
+      <c r="L53" s="144"/>
       <c r="M53" s="18"/>
       <c r="N53" s="43"/>
       <c r="O53" s="18"/>
@@ -3228,10 +3234,10 @@
       <c r="X53" s="18"/>
     </row>
     <row r="54" spans="1:24" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A54" s="160"/>
-      <c r="B54" s="161"/>
-      <c r="C54" s="161"/>
-      <c r="D54" s="161"/>
+      <c r="A54" s="167"/>
+      <c r="B54" s="145"/>
+      <c r="C54" s="145"/>
+      <c r="D54" s="145"/>
       <c r="E54" s="97">
         <f t="shared" si="25"/>
         <v>46</v>
@@ -3260,7 +3266,7 @@
         <f t="shared" si="27"/>
         <v>14116.666666666666</v>
       </c>
-      <c r="L54" s="163"/>
+      <c r="L54" s="144"/>
       <c r="M54" s="18"/>
       <c r="N54" s="43"/>
       <c r="O54" s="18"/>
@@ -3275,18 +3281,18 @@
       <c r="X54" s="18"/>
     </row>
     <row r="55" spans="1:24" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A55" s="153"/>
-      <c r="B55" s="154"/>
-      <c r="C55" s="154"/>
-      <c r="D55" s="154"/>
-      <c r="E55" s="165"/>
-      <c r="F55" s="165"/>
-      <c r="G55" s="165"/>
-      <c r="H55" s="165"/>
-      <c r="I55" s="165"/>
-      <c r="J55" s="165"/>
-      <c r="K55" s="165"/>
-      <c r="L55" s="164"/>
+      <c r="A55" s="157"/>
+      <c r="B55" s="158"/>
+      <c r="C55" s="158"/>
+      <c r="D55" s="158"/>
+      <c r="E55" s="169"/>
+      <c r="F55" s="169"/>
+      <c r="G55" s="169"/>
+      <c r="H55" s="169"/>
+      <c r="I55" s="169"/>
+      <c r="J55" s="169"/>
+      <c r="K55" s="169"/>
+      <c r="L55" s="168"/>
       <c r="M55" s="18"/>
       <c r="N55" s="95"/>
       <c r="O55" s="96"/>
@@ -3301,14 +3307,14 @@
       <c r="X55" s="18"/>
     </row>
     <row r="56" spans="1:24" x14ac:dyDescent="0.3">
-      <c r="A56" s="150"/>
-      <c r="B56" s="151"/>
-      <c r="C56" s="151"/>
-      <c r="D56" s="151"/>
-      <c r="E56" s="151"/>
-      <c r="F56" s="151"/>
-      <c r="G56" s="151"/>
-      <c r="H56" s="152"/>
+      <c r="A56" s="154"/>
+      <c r="B56" s="155"/>
+      <c r="C56" s="155"/>
+      <c r="D56" s="155"/>
+      <c r="E56" s="155"/>
+      <c r="F56" s="155"/>
+      <c r="G56" s="155"/>
+      <c r="H56" s="156"/>
       <c r="I56" s="18"/>
       <c r="J56" s="18"/>
       <c r="K56" s="18"/>
@@ -3317,49 +3323,49 @@
       <c r="N56" s="121" t="s">
         <v>66</v>
       </c>
-      <c r="O56" s="144" t="s">
+      <c r="O56" s="147" t="s">
         <v>68</v>
       </c>
-      <c r="P56" s="145"/>
+      <c r="P56" s="148"/>
       <c r="Q56" s="105" t="s">
         <v>66</v>
       </c>
-      <c r="R56" s="142" t="s">
+      <c r="R56" s="165" t="s">
         <v>70</v>
       </c>
-      <c r="S56" s="144" t="s">
+      <c r="S56" s="147" t="s">
         <v>71</v>
       </c>
-      <c r="T56" s="145"/>
+      <c r="T56" s="148"/>
       <c r="U56" s="18"/>
       <c r="V56" s="18"/>
       <c r="W56" s="18"/>
       <c r="X56" s="18"/>
     </row>
     <row r="57" spans="1:24" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A57" s="153"/>
-      <c r="B57" s="154"/>
-      <c r="C57" s="154"/>
-      <c r="D57" s="154"/>
-      <c r="E57" s="154"/>
-      <c r="F57" s="154"/>
-      <c r="G57" s="154"/>
-      <c r="H57" s="155"/>
+      <c r="A57" s="157"/>
+      <c r="B57" s="158"/>
+      <c r="C57" s="158"/>
+      <c r="D57" s="158"/>
+      <c r="E57" s="158"/>
+      <c r="F57" s="158"/>
+      <c r="G57" s="158"/>
+      <c r="H57" s="159"/>
       <c r="I57" s="18"/>
       <c r="J57" s="18"/>
       <c r="N57" s="122" t="s">
         <v>67</v>
       </c>
-      <c r="O57" s="146"/>
-      <c r="P57" s="147"/>
+      <c r="O57" s="149"/>
+      <c r="P57" s="150"/>
       <c r="Q57" s="106" t="s">
         <v>69</v>
       </c>
-      <c r="R57" s="143"/>
-      <c r="S57" s="146" t="s">
+      <c r="R57" s="166"/>
+      <c r="S57" s="149" t="s">
         <v>72</v>
       </c>
-      <c r="T57" s="147"/>
+      <c r="T57" s="150"/>
       <c r="U57" s="18"/>
       <c r="V57" s="18"/>
       <c r="W57" s="18"/>
@@ -3369,35 +3375,35 @@
       <c r="A58" s="101" t="s">
         <v>66</v>
       </c>
-      <c r="B58" s="156" t="s">
+      <c r="B58" s="160" t="s">
         <v>68</v>
       </c>
-      <c r="C58" s="157"/>
+      <c r="C58" s="161"/>
       <c r="D58" s="105" t="s">
         <v>66</v>
       </c>
-      <c r="E58" s="156" t="s">
+      <c r="E58" s="160" t="s">
         <v>70</v>
       </c>
-      <c r="F58" s="157"/>
-      <c r="G58" s="156" t="s">
+      <c r="F58" s="161"/>
+      <c r="G58" s="160" t="s">
         <v>71</v>
       </c>
-      <c r="H58" s="157"/>
+      <c r="H58" s="161"/>
       <c r="I58" s="18"/>
       <c r="J58" s="18"/>
       <c r="N58" s="103"/>
-      <c r="O58" s="148" t="s">
+      <c r="O58" s="152" t="s">
         <v>88</v>
       </c>
       <c r="P58" s="106" t="s">
         <v>74</v>
       </c>
       <c r="Q58" s="107"/>
-      <c r="R58" s="148" t="s">
+      <c r="R58" s="152" t="s">
         <v>76</v>
       </c>
-      <c r="S58" s="148" t="s">
+      <c r="S58" s="152" t="s">
         <v>78</v>
       </c>
       <c r="T58" s="106" t="s">
@@ -3412,26 +3418,26 @@
       <c r="A59" s="102" t="s">
         <v>67</v>
       </c>
-      <c r="B59" s="158"/>
-      <c r="C59" s="159"/>
+      <c r="B59" s="162"/>
+      <c r="C59" s="163"/>
       <c r="D59" s="106" t="s">
         <v>69</v>
       </c>
-      <c r="E59" s="158"/>
-      <c r="F59" s="159"/>
-      <c r="G59" s="158" t="s">
+      <c r="E59" s="162"/>
+      <c r="F59" s="163"/>
+      <c r="G59" s="162" t="s">
         <v>72</v>
       </c>
-      <c r="H59" s="159"/>
+      <c r="H59" s="163"/>
       <c r="I59" s="18"/>
       <c r="N59" s="104"/>
-      <c r="O59" s="149"/>
+      <c r="O59" s="153"/>
       <c r="P59" s="61" t="s">
         <v>75</v>
       </c>
       <c r="Q59" s="108"/>
-      <c r="R59" s="149"/>
-      <c r="S59" s="149"/>
+      <c r="R59" s="153"/>
+      <c r="S59" s="153"/>
       <c r="T59" s="61" t="s">
         <v>79</v>
       </c>
@@ -3442,20 +3448,20 @@
     </row>
     <row r="60" spans="1:24" ht="14.4" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A60" s="103"/>
-      <c r="B60" s="148" t="s">
+      <c r="B60" s="152" t="s">
         <v>73</v>
       </c>
       <c r="C60" s="106" t="s">
         <v>74</v>
       </c>
       <c r="D60" s="107"/>
-      <c r="E60" s="148" t="s">
+      <c r="E60" s="152" t="s">
         <v>76</v>
       </c>
-      <c r="F60" s="148" t="s">
+      <c r="F60" s="152" t="s">
         <v>77</v>
       </c>
-      <c r="G60" s="148" t="s">
+      <c r="G60" s="152" t="s">
         <v>78</v>
       </c>
       <c r="H60" s="106" t="s">
@@ -3495,14 +3501,14 @@
     </row>
     <row r="61" spans="1:24" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A61" s="104"/>
-      <c r="B61" s="149"/>
+      <c r="B61" s="153"/>
       <c r="C61" s="61" t="s">
         <v>75</v>
       </c>
       <c r="D61" s="108"/>
-      <c r="E61" s="149"/>
-      <c r="F61" s="149"/>
-      <c r="G61" s="149"/>
+      <c r="E61" s="153"/>
+      <c r="F61" s="153"/>
+      <c r="G61" s="153"/>
       <c r="H61" s="61" t="s">
         <v>79</v>
       </c>
@@ -4109,7 +4115,7 @@
       <c r="C79" s="18"/>
       <c r="D79" s="18"/>
       <c r="E79" s="18"/>
-      <c r="F79" s="161"/>
+      <c r="F79" s="145"/>
       <c r="G79" s="18"/>
       <c r="H79" s="18"/>
       <c r="I79" s="18"/>
@@ -4135,7 +4141,7 @@
       <c r="C80" s="18"/>
       <c r="D80" s="18"/>
       <c r="E80" s="18"/>
-      <c r="F80" s="161"/>
+      <c r="F80" s="145"/>
       <c r="G80" s="18"/>
       <c r="H80" s="18"/>
       <c r="I80" s="18"/>
@@ -4408,25 +4414,10 @@
       <c r="H108" s="3"/>
     </row>
   </sheetData>
-  <sortState ref="J67:K72">
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="J67:K72">
     <sortCondition ref="J67:J72"/>
   </sortState>
   <mergeCells count="31">
-    <mergeCell ref="K34:L41"/>
-    <mergeCell ref="F79:F80"/>
-    <mergeCell ref="N34:O34"/>
-    <mergeCell ref="O56:P57"/>
-    <mergeCell ref="I34:J35"/>
-    <mergeCell ref="E34:H34"/>
-    <mergeCell ref="B60:B61"/>
-    <mergeCell ref="E60:E61"/>
-    <mergeCell ref="F60:F61"/>
-    <mergeCell ref="G60:G61"/>
-    <mergeCell ref="A56:H57"/>
-    <mergeCell ref="B58:C59"/>
-    <mergeCell ref="E58:F59"/>
-    <mergeCell ref="G58:H58"/>
-    <mergeCell ref="G59:H59"/>
     <mergeCell ref="A22:F22"/>
     <mergeCell ref="R56:R57"/>
     <mergeCell ref="S56:T56"/>
@@ -4443,6 +4434,21 @@
     <mergeCell ref="D34:D46"/>
     <mergeCell ref="E42:L43"/>
     <mergeCell ref="L44:L47"/>
+    <mergeCell ref="B60:B61"/>
+    <mergeCell ref="E60:E61"/>
+    <mergeCell ref="F60:F61"/>
+    <mergeCell ref="G60:G61"/>
+    <mergeCell ref="A56:H57"/>
+    <mergeCell ref="B58:C59"/>
+    <mergeCell ref="E58:F59"/>
+    <mergeCell ref="G58:H58"/>
+    <mergeCell ref="G59:H59"/>
+    <mergeCell ref="K34:L41"/>
+    <mergeCell ref="F79:F80"/>
+    <mergeCell ref="N34:O34"/>
+    <mergeCell ref="O56:P57"/>
+    <mergeCell ref="I34:J35"/>
+    <mergeCell ref="E34:H34"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
